--- a/Spring interview questions.xlsx
+++ b/Spring interview questions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="904"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="904" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Configurations" sheetId="17" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="187">
   <si>
     <t>Question</t>
   </si>
@@ -65,9 +65,6 @@
   </si>
   <si>
     <t>What is Spring?</t>
-  </si>
-  <si>
-    <t>Spring is an open source development framework for enterprise Java. The core features of the Spring Framework can be used in developing any Java application, but there are extensions for building web applications on top of the Java EE platform. Spring framework targets to make J2EE development easier to use and promote good programming practice by enabling a POJO-based programming model.</t>
   </si>
   <si>
     <r>
@@ -156,51 +153,6 @@
         <family val="2"/>
       </rPr>
       <t>?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Inversion of Control (IoC)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> is a general concept, and it can be expressed in many different ways and </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Dependency Injection </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>is merely one concrete example of Inversion of Control.
-This concept says that you do not create your objects but describe how they should be created. You don't directly connect your components and services together in code but describe which services are needed by which components in a configuration file. A container (the IOC container) is then responsible for hooking it all up.</t>
     </r>
   </si>
   <si>
@@ -7372,6 +7324,62 @@
    System.out.println("Spring Container is destroy! Customer clean up");
  }</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Spring is an open source development framework for enterprise Java. 
+ - The core features of the Spring Framework can be used in developing any Java application, but there are extensions for building web applications on top of the Java EE platform. 
+ - Spring framework targets to make J2EE development easier to use and promote good programming practice by enabling a POJO-based programming model.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Inversion of Control (IoC)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is a general concept, and it can be expressed in many different ways and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Dependency Injection </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>is merely one concrete example of Inversion of Control.
+ - This concept says that you do not create your objects but describe how they should be created. 
+ - You don't directly connect your components and services together in code but describe which services are needed by which components in a configuration file. 
+ - A container (the IOC container) is then responsible for hooking it all up.</t>
+    </r>
+  </si>
+  <si>
+    <t>Template method is using as an inverted controls structure, sometimes referred as “the Hollywood principle”: from the superclass point of view: “Don't call us, we'll call you”. This refers to the fact that instead of calling the methods from base class in the subclasses, the methods from subclass are called in the template method from superclass.
+Due to the above fact a special care should be paid to the access modifiers: the template method should be implemented only in the base class, and the primitive method should be implemented in the subclasses. A particular case of the template method is represented by the customization hooks.</t>
   </si>
 </sst>
 </file>
@@ -8044,17 +8052,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -8067,6 +8069,12 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -8370,8 +8378,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8387,184 +8395,184 @@
       <c r="B2" s="41"/>
       <c r="C2" s="41"/>
       <c r="D2" s="41" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E2" s="41" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="45">
       <c r="B3" s="50" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C3" s="50"/>
       <c r="D3" s="51" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E3" s="50"/>
     </row>
     <row r="4" spans="2:5" ht="90">
       <c r="B4" s="52" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C4" s="51" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E4" s="50"/>
     </row>
     <row r="5" spans="2:5" ht="165">
       <c r="B5" s="51" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C5" s="51" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D5" s="51" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E5" s="50"/>
     </row>
     <row r="6" spans="2:5" ht="120">
       <c r="B6" s="50" t="s">
+        <v>145</v>
+      </c>
+      <c r="C6" s="51" t="s">
         <v>147</v>
-      </c>
-      <c r="C6" s="51" t="s">
-        <v>149</v>
       </c>
       <c r="D6" s="50"/>
       <c r="E6" s="50"/>
     </row>
     <row r="7" spans="2:5" ht="105">
       <c r="B7" s="50" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C7" s="50"/>
       <c r="D7" s="51" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E7" s="50"/>
     </row>
     <row r="8" spans="2:5" ht="90">
       <c r="B8" s="51" t="s">
+        <v>150</v>
+      </c>
+      <c r="C8" s="51" t="s">
+        <v>151</v>
+      </c>
+      <c r="D8" s="51" t="s">
         <v>152</v>
-      </c>
-      <c r="C8" s="51" t="s">
-        <v>153</v>
-      </c>
-      <c r="D8" s="51" t="s">
-        <v>154</v>
       </c>
       <c r="E8" s="50"/>
     </row>
     <row r="9" spans="2:5" ht="150">
       <c r="B9" s="50" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C9" s="50"/>
       <c r="D9" s="51" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E9" s="50"/>
     </row>
     <row r="10" spans="2:5" ht="120">
       <c r="B10" s="51" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C10" s="50"/>
       <c r="D10" s="51" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E10" s="50"/>
     </row>
     <row r="11" spans="2:5" ht="150">
       <c r="B11" s="50" t="s">
+        <v>157</v>
+      </c>
+      <c r="C11" s="51" t="s">
+        <v>158</v>
+      </c>
+      <c r="D11" s="51" t="s">
         <v>159</v>
-      </c>
-      <c r="C11" s="51" t="s">
-        <v>160</v>
-      </c>
-      <c r="D11" s="51" t="s">
-        <v>161</v>
       </c>
       <c r="E11" s="50"/>
     </row>
     <row r="12" spans="2:5" ht="120">
       <c r="B12" s="53" t="s">
+        <v>160</v>
+      </c>
+      <c r="C12" s="51" t="s">
+        <v>161</v>
+      </c>
+      <c r="D12" s="51" t="s">
         <v>162</v>
-      </c>
-      <c r="C12" s="51" t="s">
-        <v>163</v>
-      </c>
-      <c r="D12" s="51" t="s">
-        <v>164</v>
       </c>
       <c r="E12" s="51"/>
     </row>
     <row r="13" spans="2:5" ht="120">
       <c r="B13" s="51" t="s">
+        <v>167</v>
+      </c>
+      <c r="C13" s="51" t="s">
+        <v>168</v>
+      </c>
+      <c r="D13" s="58" t="s">
         <v>169</v>
-      </c>
-      <c r="C13" s="51" t="s">
-        <v>170</v>
-      </c>
-      <c r="D13" s="60" t="s">
-        <v>171</v>
       </c>
       <c r="E13" s="51"/>
     </row>
     <row r="14" spans="2:5" ht="270">
       <c r="B14" s="51" t="s">
+        <v>173</v>
+      </c>
+      <c r="C14" s="58" t="s">
+        <v>174</v>
+      </c>
+      <c r="D14" s="58" t="s">
         <v>175</v>
-      </c>
-      <c r="C14" s="60" t="s">
-        <v>176</v>
-      </c>
-      <c r="D14" s="60" t="s">
-        <v>177</v>
       </c>
       <c r="E14" s="51"/>
     </row>
     <row r="15" spans="2:5" ht="60">
       <c r="B15" s="51" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C15" s="51"/>
       <c r="D15" s="51" t="s">
-        <v>173</v>
-      </c>
-      <c r="E15" s="62" t="s">
-        <v>174</v>
+        <v>171</v>
+      </c>
+      <c r="E15" s="60" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="16" spans="2:5" ht="240">
       <c r="B16" s="51" t="s">
+        <v>176</v>
+      </c>
+      <c r="C16" s="51" t="s">
+        <v>177</v>
+      </c>
+      <c r="D16" s="51" t="s">
         <v>178</v>
       </c>
-      <c r="C16" s="51" t="s">
+      <c r="E16" s="61" t="s">
         <v>179</v>
-      </c>
-      <c r="D16" s="51" t="s">
-        <v>180</v>
-      </c>
-      <c r="E16" s="63" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="165">
       <c r="B17" s="51" t="s">
+        <v>180</v>
+      </c>
+      <c r="C17" s="51" t="s">
+        <v>181</v>
+      </c>
+      <c r="D17" s="51" t="s">
         <v>182</v>
       </c>
-      <c r="C17" s="51" t="s">
+      <c r="E17" s="60" t="s">
         <v>183</v>
-      </c>
-      <c r="D17" s="51" t="s">
-        <v>184</v>
-      </c>
-      <c r="E17" s="62" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="18" spans="2:5">
@@ -8679,70 +8687,70 @@
     </row>
     <row r="2" spans="1:3" ht="90">
       <c r="A2" s="16" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C2" s="9"/>
     </row>
     <row r="3" spans="1:3" ht="90">
       <c r="A3" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>68</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>70</v>
       </c>
       <c r="C3" s="9"/>
     </row>
     <row r="4" spans="1:3" ht="120">
       <c r="A4" s="16" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C4" s="9"/>
     </row>
     <row r="5" spans="1:3" ht="45">
       <c r="A5" s="16" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C5" s="9"/>
     </row>
     <row r="6" spans="1:3" ht="45">
       <c r="A6" s="16" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C6" s="9"/>
     </row>
     <row r="7" spans="1:3" ht="180">
       <c r="A7" s="16" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C7" s="9"/>
     </row>
     <row r="8" spans="1:3" ht="45">
       <c r="A8" s="16" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C8" s="9"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="16" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B9" s="11"/>
       <c r="C9" s="9"/>
@@ -8816,91 +8824,91 @@
     </row>
     <row r="2" spans="1:3" ht="30">
       <c r="A2" s="16" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C2" s="9"/>
     </row>
     <row r="3" spans="1:3" ht="75">
       <c r="A3" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" s="36" t="s">
         <v>111</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="C3" s="36" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="105">
       <c r="A4" s="16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C4" s="9"/>
     </row>
     <row r="5" spans="1:3" ht="90">
       <c r="A5" s="16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C5" s="9"/>
     </row>
     <row r="6" spans="1:3" ht="45">
       <c r="A6" s="16" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C6" s="9"/>
     </row>
     <row r="7" spans="1:3" ht="75">
       <c r="A7" s="16" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C7" s="9"/>
     </row>
     <row r="8" spans="1:3" ht="105">
       <c r="A8" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C8" s="37" t="s">
         <v>121</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="C8" s="37" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="90">
       <c r="A9" s="16" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C9" s="37" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="195">
       <c r="A10" s="16" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -8984,7 +8992,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9007,55 +9015,55 @@
     </row>
     <row r="2" spans="1:3" ht="135">
       <c r="A2" s="16" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C2" s="9"/>
     </row>
     <row r="3" spans="1:3" ht="120">
       <c r="A3" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>97</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>99</v>
       </c>
       <c r="C3" s="9"/>
     </row>
     <row r="4" spans="1:3" ht="45">
       <c r="A4" s="16" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C4" s="9"/>
     </row>
     <row r="5" spans="1:3" ht="75">
       <c r="A5" s="16" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C5" s="9"/>
     </row>
     <row r="6" spans="1:3" ht="270">
       <c r="A6" s="16" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C6" s="9"/>
     </row>
     <row r="7" spans="1:3" ht="195">
       <c r="A7" s="16" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C7" s="9"/>
     </row>
@@ -9203,19 +9211,19 @@
     </row>
     <row r="2" spans="1:3" ht="90">
       <c r="A2" s="16" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C2" s="9"/>
     </row>
     <row r="3" spans="1:3" ht="60">
       <c r="A3" s="16" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C3" s="9"/>
     </row>
@@ -9255,8 +9263,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:D11"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9278,93 +9286,95 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="2:4" ht="60">
+    <row r="2" spans="2:4" ht="75">
       <c r="B2" s="42" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="43" t="s">
-        <v>4</v>
+        <v>184</v>
       </c>
       <c r="D2" s="40"/>
     </row>
     <row r="3" spans="2:4" ht="300">
       <c r="B3" s="44" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" s="45" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D3" s="40"/>
     </row>
     <row r="4" spans="2:4" ht="255">
       <c r="B4" s="42" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" s="45" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D4" s="40"/>
     </row>
     <row r="5" spans="2:4" ht="105">
       <c r="B5" s="42" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C5" s="46" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D5" s="9"/>
     </row>
     <row r="6" spans="2:4" ht="30">
       <c r="B6" s="49" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C6" s="47" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D6" s="9"/>
     </row>
     <row r="7" spans="2:4" ht="90">
       <c r="B7" s="48" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D7" s="9"/>
     </row>
     <row r="8" spans="2:4" ht="60">
       <c r="B8" s="28" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D8" s="9"/>
     </row>
-    <row r="9" spans="2:4" ht="165">
+    <row r="9" spans="2:4" ht="225">
       <c r="B9" s="16" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="D9" s="9"/>
+        <v>123</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="10" spans="2:4" ht="255">
       <c r="B10" s="16" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D10" s="9"/>
     </row>
     <row r="11" spans="2:4">
       <c r="B11" s="16" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C11" s="38" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D11" s="9"/>
     </row>
@@ -9383,7 +9393,7 @@
   <dimension ref="B1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9394,91 +9404,91 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:4" ht="15.75" thickTop="1">
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="58" t="s">
+      <c r="C1" s="57" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="2:4" ht="150">
+    <row r="2" spans="2:4" ht="165">
       <c r="B2" s="49" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="57"/>
+        <v>185</v>
+      </c>
+      <c r="D2" s="56"/>
     </row>
     <row r="3" spans="2:4" ht="135">
       <c r="B3" s="44" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C3" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="57"/>
+        <v>9</v>
+      </c>
+      <c r="D3" s="56"/>
     </row>
     <row r="4" spans="2:4" ht="31.5">
       <c r="B4" s="54" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C4" s="51"/>
       <c r="D4" s="55"/>
     </row>
     <row r="5" spans="2:4" ht="47.25" customHeight="1">
-      <c r="B5" s="56" t="s">
-        <v>168</v>
-      </c>
-      <c r="C5" s="56"/>
+      <c r="B5" s="62" t="s">
+        <v>166</v>
+      </c>
+      <c r="C5" s="62"/>
       <c r="D5" s="55"/>
     </row>
     <row r="6" spans="2:4" ht="30.75" customHeight="1">
-      <c r="B6" s="56" t="s">
-        <v>166</v>
-      </c>
-      <c r="C6" s="56"/>
+      <c r="B6" s="62" t="s">
+        <v>164</v>
+      </c>
+      <c r="C6" s="62"/>
       <c r="D6" s="55"/>
     </row>
     <row r="7" spans="2:4" ht="33.75" customHeight="1">
-      <c r="B7" s="56" t="s">
-        <v>167</v>
-      </c>
-      <c r="C7" s="56"/>
+      <c r="B7" s="62" t="s">
+        <v>165</v>
+      </c>
+      <c r="C7" s="62"/>
       <c r="D7" s="55"/>
     </row>
     <row r="8" spans="2:4" ht="150">
       <c r="B8" s="44" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C8" s="45" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D8" s="40"/>
     </row>
     <row r="9" spans="2:4" ht="60">
       <c r="B9" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="56"/>
+    </row>
+    <row r="10" spans="2:4" ht="135">
+      <c r="B10" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="45" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="57"/>
-    </row>
-    <row r="10" spans="2:4" ht="135">
-      <c r="B10" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="59" t="s">
-        <v>49</v>
+      <c r="C10" s="46" t="s">
+        <v>47</v>
       </c>
       <c r="D10" s="4"/>
     </row>
     <row r="11" spans="2:4">
-      <c r="B11" s="16"/>
+      <c r="B11" s="48"/>
       <c r="C11" s="11"/>
       <c r="D11" s="4"/>
     </row>
@@ -9490,7 +9500,7 @@
     <row r="13" spans="2:4" ht="15.75" thickTop="1"/>
     <row r="14" spans="2:4">
       <c r="B14" s="22" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -9531,21 +9541,21 @@
     </row>
     <row r="2" spans="1:3" ht="45">
       <c r="A2" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>21</v>
-      </c>
       <c r="C2" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="45">
       <c r="A3" s="24" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C3" s="4"/>
     </row>
@@ -9690,28 +9700,28 @@
     </row>
     <row r="2" spans="1:3" ht="60">
       <c r="A2" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C2" s="9"/>
     </row>
     <row r="3" spans="1:3" ht="165">
       <c r="A3" s="29" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C3" s="9"/>
     </row>
     <row r="4" spans="1:3" ht="240">
       <c r="A4" s="16" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C4" s="9"/>
     </row>
@@ -9911,93 +9921,93 @@
     </row>
     <row r="2" spans="1:3" ht="60">
       <c r="A2" s="16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2" s="9"/>
     </row>
     <row r="3" spans="1:3" ht="120">
       <c r="A3" s="16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C3" s="9"/>
     </row>
     <row r="4" spans="1:3" ht="75">
       <c r="A4" s="16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C4" s="9"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="9"/>
     </row>
     <row r="6" spans="1:3" ht="270">
       <c r="A6" s="25" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B6" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="23" t="s">
         <v>35</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="195">
       <c r="A7" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="59" t="s">
         <v>36</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="61" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="132" customHeight="1">
       <c r="A8" s="16" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C8" s="9"/>
     </row>
     <row r="9" spans="1:3" ht="405">
       <c r="A9" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C9" s="9"/>
     </row>
     <row r="10" spans="1:3" ht="75">
       <c r="A10" s="16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C10" s="9"/>
     </row>
     <row r="11" spans="1:3" ht="195">
       <c r="A11" s="16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C11" s="9"/>
     </row>
@@ -10026,7 +10036,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10049,37 +10059,37 @@
     </row>
     <row r="2" spans="1:3" ht="75">
       <c r="A2" s="35" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C2" s="9"/>
     </row>
     <row r="3" spans="1:3" ht="345">
       <c r="A3" s="35" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C3" s="9"/>
     </row>
     <row r="4" spans="1:3" ht="135">
       <c r="A4" s="35" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C4" s="9"/>
     </row>
     <row r="5" spans="1:3" ht="45">
       <c r="A5" s="16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C5" s="9"/>
     </row>
@@ -10104,7 +10114,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10127,37 +10137,37 @@
     </row>
     <row r="2" spans="1:3" ht="75">
       <c r="A2" s="16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C2" s="9"/>
     </row>
     <row r="3" spans="1:3" ht="60">
       <c r="A3" s="16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C3" s="9"/>
     </row>
     <row r="4" spans="1:3" ht="75">
       <c r="A4" s="16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C4" s="14"/>
     </row>
     <row r="5" spans="1:3" ht="270">
       <c r="A5" s="16" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C5" s="9"/>
     </row>
@@ -10204,19 +10214,19 @@
     </row>
     <row r="2" spans="1:3" ht="60">
       <c r="A2" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C2" s="9"/>
     </row>
     <row r="3" spans="1:3" ht="300">
       <c r="A3" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C3" s="9"/>
     </row>
